--- a/src/test/resources/ExcelResultsFolder/TestData.xlsx
+++ b/src/test/resources/ExcelResultsFolder/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\eclipse-workspace\integrationApiUiTesting\src\test\resources\ExcelResultsFolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Downloads\IntegrationPSP\Integration\src\test\resources\ExcelResultsFolder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC2AD51B-8A94-460E-B99A-CCDFC06D27A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2AE44E-B8FF-4D6C-8761-27E2EF36A966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EmailData" sheetId="1" r:id="rId1"/>
@@ -43,16 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="23">
-  <si>
-    <t>ZZ</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>IN R</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="125">
   <si>
     <t>US</t>
   </si>
@@ -66,9 +57,6 @@
     <t>IN</t>
   </si>
   <si>
-    <t>QLD</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -78,47 +66,365 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Jaipur</t>
-  </si>
-  <si>
     <t>TestData</t>
   </si>
   <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>City(*&amp;^123</t>
-  </si>
-  <si>
-    <t>(blank)</t>
-  </si>
-  <si>
-    <t>suhas@@@</t>
-  </si>
-  <si>
-    <t>pisijds   cdscd   dcdsc@gmail.com</t>
-  </si>
-  <si>
-    <t>AED</t>
-  </si>
-  <si>
-    <t>test@gmail.com</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>U</t>
-  </si>
-  <si>
-    <t>AE    D</t>
+    <t>test@example.com</t>
+  </si>
+  <si>
+    <t>user.name@example.com</t>
+  </si>
+  <si>
+    <t>user_name@example.com</t>
+  </si>
+  <si>
+    <t>user-name@example.com</t>
+  </si>
+  <si>
+    <t>user123@example.com</t>
+  </si>
+  <si>
+    <t>user+promo@example.com</t>
+  </si>
+  <si>
+    <t>user.test+1@example.com</t>
+  </si>
+  <si>
+    <t>user@mail.example.com</t>
+  </si>
+  <si>
+    <t>user@example.co.in</t>
+  </si>
+  <si>
+    <t>USER@EXAMPLE.COM</t>
+  </si>
+  <si>
+    <t>a@b.co</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> test@example.com </t>
+  </si>
+  <si>
+    <t>user@123.com</t>
+  </si>
+  <si>
+    <t>user@example.travel</t>
+  </si>
+  <si>
+    <t>testexample.com</t>
+  </si>
+  <si>
+    <t>test@</t>
+  </si>
+  <si>
+    <t>@example.com</t>
+  </si>
+  <si>
+    <t>test@.com</t>
+  </si>
+  <si>
+    <t>test@example</t>
+  </si>
+  <si>
+    <t>test@@example.com</t>
+  </si>
+  <si>
+    <t>te@st@example.com</t>
+  </si>
+  <si>
+    <t>test@example..com</t>
+  </si>
+  <si>
+    <t>test..email@example.com</t>
+  </si>
+  <si>
+    <t>.test@example.com</t>
+  </si>
+  <si>
+    <t>test.@example.com</t>
+  </si>
+  <si>
+    <t>test@example,com</t>
+  </si>
+  <si>
+    <t>test@example/com</t>
+  </si>
+  <si>
+    <t>test@example@com</t>
+  </si>
+  <si>
+    <t>test@example.c</t>
+  </si>
+  <si>
+    <t>test@example.com' OR '1'='1</t>
+  </si>
+  <si>
+    <t>test@example.com; DROP TABLE users;</t>
+  </si>
+  <si>
+    <t>test@example.com\n</t>
+  </si>
+  <si>
+    <t>test@example.com\r</t>
+  </si>
+  <si>
+    <t>tést@example.com</t>
+  </si>
+  <si>
+    <t>user😊@example.com</t>
+  </si>
+  <si>
+    <t>test@example.com,abc@test.com</t>
+  </si>
+  <si>
+    <t>test@example.com abc@test.com</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Coimbatore-North</t>
+  </si>
+  <si>
+    <t>O'Fallon</t>
+  </si>
+  <si>
+    <t>São Paulo</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>Los Angeles</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Mumbai123</t>
+  </si>
+  <si>
+    <t>@Delhi</t>
+  </si>
+  <si>
+    <t>#City</t>
+  </si>
+  <si>
+    <t>' OR '1'='1</t>
+  </si>
+  <si>
+    <t>aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa</t>
+  </si>
+  <si>
+    <t>GB</t>
+  </si>
+  <si>
+    <t>BR</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>FR</t>
+  </si>
+  <si>
+    <t>JP</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>USA1</t>
+  </si>
+  <si>
+    <t>@IN</t>
+  </si>
+  <si>
+    <t>#US</t>
+  </si>
+  <si>
+    <t>IND123</t>
+  </si>
+  <si>
+    <t>abcd</t>
+  </si>
+  <si>
+    <t>123 Main Street</t>
+  </si>
+  <si>
+    <t>221B Baker Street</t>
+  </si>
+  <si>
+    <t>Apartment 4B, 56 Elm Road</t>
+  </si>
+  <si>
+    <t>1600 Pennsylvania Avenue</t>
+  </si>
+  <si>
+    <t>Flat No. 12, Maple Residency</t>
+  </si>
+  <si>
+    <t>Sector 21, Gurgaon</t>
+  </si>
+  <si>
+    <t>@@@!!!###</t>
+  </si>
+  <si>
+    <t>1234567890123456789012345678901234567890123456789012345678901234567890</t>
+  </si>
+  <si>
+    <t>#MainStreet</t>
+  </si>
+  <si>
+    <t>!@StreetName</t>
+  </si>
+  <si>
+    <t>SW1A 1AA</t>
+  </si>
+  <si>
+    <t>H0H 0H0</t>
+  </si>
+  <si>
+    <t>12345-6789</t>
+  </si>
+  <si>
+    <t>A1B 2C3</t>
+  </si>
+  <si>
+    <t>ABCDE</t>
+  </si>
+  <si>
+    <t>12@34</t>
+  </si>
+  <si>
+    <t>!90210</t>
+  </si>
+  <si>
+    <t>123 45 678</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>INR</t>
+  </si>
+  <si>
+    <t>EUR</t>
+  </si>
+  <si>
+    <t>GBP</t>
+  </si>
+  <si>
+    <t>JPY</t>
+  </si>
+  <si>
+    <t>AUD</t>
+  </si>
+  <si>
+    <t>CAD</t>
+  </si>
+  <si>
+    <t>CHF</t>
+  </si>
+  <si>
+    <t>CNY</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>NZD</t>
+  </si>
+  <si>
+    <t>INR1</t>
+  </si>
+  <si>
+    <t>@USD</t>
+  </si>
+  <si>
+    <t>#EUR</t>
+  </si>
+  <si>
+    <t>usd</t>
+  </si>
+  <si>
+    <t>iPhone 14</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy S23</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 15</t>
+  </si>
+  <si>
+    <t>Sony WH-1000XM5</t>
+  </si>
+  <si>
+    <t>Nike Air Max</t>
+  </si>
+  <si>
+    <t>MacBook Pro 16</t>
+  </si>
+  <si>
+    <t>Canon EOS 5D</t>
+  </si>
+  <si>
+    <t>HP Pavilion Laptop</t>
+  </si>
+  <si>
+    <t>@iPhone</t>
+  </si>
+  <si>
+    <t>#Galaxy</t>
+  </si>
+  <si>
+    <t>!@#$%^&amp;*()</t>
+  </si>
+  <si>
+    <t>CA</t>
+  </si>
+  <si>
+    <t>NY</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>MH</t>
+  </si>
+  <si>
+    <t>DL</t>
+  </si>
+  <si>
+    <t>KA</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NY1</t>
+  </si>
+  <si>
+    <t>@CA</t>
+  </si>
+  <si>
+    <t>#TX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,6 +462,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -206,9 +519,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -222,6 +532,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -524,16 +835,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="1" max="1" width="33.7265625" customWidth="1"/>
     <col min="2" max="2" width="17.453125" customWidth="1"/>
     <col min="3" max="3" width="20.453125" customWidth="1"/>
     <col min="5" max="5" width="12.26953125" customWidth="1"/>
@@ -541,181 +852,419 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="16" t="s">
-        <v>19</v>
-      </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>5</v>
+      </c>
       <c r="C13" s="6"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
       <c r="C14" s="6"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>5</v>
+      </c>
       <c r="C15" s="6"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="6"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="3:5">
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="6"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="3:5">
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="6"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="3:5">
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="6"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="3:5">
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="6"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="3:5">
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
       <c r="C21" s="6"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="3:5">
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
       <c r="C22" s="6"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="3:5">
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
       <c r="C23" s="6"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="3:5">
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
       <c r="C24" s="6"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="3:5">
+    <row r="25" spans="1:5">
+      <c r="A25" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
       <c r="C25" s="6"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="3:5">
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
       <c r="C26" s="6"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="3:5">
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
       <c r="C27" s="6"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="3:5">
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
       <c r="C28" s="6"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="3:5">
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
       <c r="C29" s="6"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="3:5">
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
+      </c>
       <c r="C30" s="6"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
     </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{F32D769C-F607-43C4-8E29-51F54CACA3FB}"/>
+    <hyperlink ref="A25" r:id="rId1" xr:uid="{789A740E-171E-4CF3-BE0C-E8575127A181}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF2E299D-1153-47D3-ACB1-8EE951B99FA7}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="9" customWidth="1"/>
+    <col min="1" max="1" width="44.08984375" style="9" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="11.90625" style="3" customWidth="1"/>
     <col min="4" max="4" width="8.7265625" style="3"/>
@@ -723,48 +1272,135 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="10" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>10</v>
+        <v>47</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="B5" s="11"/>
+      <c r="A5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="B6" s="11"/>
+      <c r="A6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="9">
+        <v>123</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -773,10 +1409,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB3DF1E-7FCF-4AC6-A651-95E623130261}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -790,18 +1426,18 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
@@ -809,40 +1445,40 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>10</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C4" s="1"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
+        <v>59</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" t="s">
-        <v>10</v>
+        <v>60</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
@@ -850,10 +1486,10 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>61</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
@@ -861,10 +1497,10 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
+        <v>62</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
@@ -872,14 +1508,83 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>63</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>1234</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -888,15 +1593,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AD81227-AF5E-4F7B-936E-19FF4A5E049F}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="80.54296875" customWidth="1"/>
     <col min="2" max="2" width="28.7265625" customWidth="1"/>
     <col min="3" max="3" width="19.1796875" customWidth="1"/>
     <col min="4" max="4" width="15.453125" customWidth="1"/>
@@ -905,71 +1610,141 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>71</v>
+      </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
+      <c r="A11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
       <c r="C12" s="6"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>79</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -979,94 +1754,172 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7063156-6C08-4131-917F-AB54D3A5925A}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="17.453125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="19.1796875" style="12" customWidth="1"/>
+    <col min="1" max="1" width="17.453125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="19.1796875" style="11" customWidth="1"/>
     <col min="3" max="3" width="14.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>8</v>
+      <c r="A1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="13"/>
-      <c r="B2" s="13" t="s">
-        <v>10</v>
+      <c r="A2" s="12">
+        <v>110001</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>5</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="B3" s="13"/>
+      <c r="A3" s="11">
+        <v>560001</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="12">
+        <v>10001</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="6"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="12">
+        <v>90210</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="6"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="6"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="6"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C10" s="6"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="B11" s="13"/>
+      <c r="A11" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>6</v>
+      </c>
       <c r="C11" s="6"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="11">
+        <v>1234</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="11">
+        <v>123456789012345</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1079,7 +1932,7 @@
   <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1093,26 +1946,26 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="8" t="s">
-        <v>18</v>
+        <v>89</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="2"/>
@@ -1120,106 +1973,172 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="1"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="8"/>
+        <v>91</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1"/>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="1"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C8" s="1"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="14"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C9" s="1"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="8"/>
-      <c r="B10" s="8"/>
+      <c r="A10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C10" s="1"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C12" s="1"/>
       <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8"/>
-      <c r="B13" s="8"/>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="8">
+        <v>123</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C16" s="1"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="8"/>
-      <c r="B17" s="8"/>
+      <c r="A17" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C17" s="1"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C18" s="1"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5">
+      <c r="A19" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C19" s="1"/>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5">
+      <c r="A20" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:5">
@@ -1288,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F273D65-64CD-4DA6-A7CB-CBDD420D1D4A}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1304,35 +2223,117 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="8" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="B4" s="2"/>
+      <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
       <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>113</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1342,10 +2343,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C7EBC6-1F7B-4D49-A634-9FC007EF1086}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1359,43 +2360,138 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="9" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="8" t="s">
-        <v>7</v>
+        <v>114</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="1"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15" t="s">
-        <v>15</v>
+      <c r="A3" s="14" t="s">
+        <v>115</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="1"/>
       <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="8"/>
+      <c r="A4" s="8" t="s">
+        <v>116</v>
+      </c>
       <c r="B4" s="8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="1"/>
       <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="B10" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>123</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>123</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>124</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
